--- a/data/trans_dic/P22$notiene-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Habitat-trans_dic.xlsx
@@ -739,21 +739,21 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.00772579659579548</v>
+        <v>0.0077265422200309</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.006340389226678277</v>
+        <v>0.006381711487503355</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.003163304377895236</v>
+        <v>0.00318983771482485</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.00320623828427947</v>
+        <v>0.00370264438200895</v>
       </c>
     </row>
     <row r="7">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001074866293158311</v>
+        <v>0.001085142271491413</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0006746270317627684</v>
+        <v>0.0006632214352114199</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0009088017045196815</v>
+        <v>0.0008552948730110865</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.000574902785869405</v>
+        <v>0.0005433990022082246</v>
       </c>
     </row>
     <row r="9">
@@ -854,38 +854,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01203866277090832</v>
+        <v>0.01515532593844807</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.009407916073337996</v>
+        <v>0.008650618127889989</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.005441502896870203</v>
+        <v>0.005519664512184122</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.006114807163595025</v>
+        <v>0.005464859907869647</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.006518036366759276</v>
+        <v>0.004658608207484259</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007020980369742595</v>
+        <v>0.006272448699997545</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.006377026082672817</v>
+        <v>0.006725692318730337</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007603789948764485</v>
+        <v>0.007087977924447675</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.003511740442053037</v>
+        <v>0.002930480535049312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.004748324897738362</v>
+        <v>0.005411104869231137</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.004110768970123519</v>
+        <v>0.00437192315984117</v>
       </c>
     </row>
     <row r="10">
@@ -980,32 +980,32 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01214716785321052</v>
+        <v>0.01224158244738105</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01126330042397819</v>
+        <v>0.01127857152497434</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.005598624091653857</v>
+        <v>0.007145682275169495</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0044407001258967</v>
+        <v>0.004396946248738204</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.007245747228238236</v>
+        <v>0.006015168720639202</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.005535993501956631</v>
+        <v>0.005606144189799553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.003541953800470053</v>
+        <v>0.00393152614515737</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.002225542329263435</v>
+        <v>0.002422277222302023</v>
       </c>
     </row>
     <row r="13">
@@ -1053,7 +1053,7 @@
         <v>0.002526550228422398</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.002859997949489408</v>
+        <v>0.002859997949489407</v>
       </c>
     </row>
     <row r="14">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001603370951577284</v>
+        <v>0.001308245706675943</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.001080161767388125</v>
+        <v>0.0005627748049937778</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0006159843337849775</v>
+        <v>0.0006185313327893757</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.001091401626349055</v>
+        <v>0.00114065623689215</v>
       </c>
     </row>
     <row r="15">
@@ -1103,33 +1103,33 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.006691394010193251</v>
+        <v>0.007808811901952029</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01332136026470339</v>
+        <v>0.01374227538856629</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01201064652334112</v>
+        <v>0.01170040940528259</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.004512001321439357</v>
+        <v>0.00502226142428791</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.008225922642057347</v>
+        <v>0.007210190801920523</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.002368057139837057</v>
+        <v>0.002656646413101368</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.003201888592035592</v>
+        <v>0.00347855386912846</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.006635048739270184</v>
+        <v>0.00595856340098897</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.006577959138102771</v>
+        <v>0.007022832637444431</v>
       </c>
     </row>
     <row r="16">
@@ -1188,16 +1188,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1206,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0008363908952351344</v>
+        <v>0.0007610016442306122</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0009112473460997364</v>
+        <v>0.000813232716130263</v>
       </c>
     </row>
     <row r="18">
@@ -1232,40 +1232,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.00342592607366459</v>
+        <v>0.00334646111117109</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.002892399386484424</v>
+        <v>0.002894287385223187</v>
       </c>
     </row>
     <row r="19">
@@ -1567,21 +1567,21 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5336</v>
+        <v>5337</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>4266</v>
+        <v>4294</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>4259</v>
+        <v>4295</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>4565</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="8">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1753</v>
+        <v>1650</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1219</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11">
@@ -1726,38 +1726,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11567</v>
+        <v>14561</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>9610</v>
+        <v>8837</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5708</v>
+        <v>5790</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5922</v>
+        <v>5292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6728</v>
+        <v>4809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7309</v>
+        <v>6530</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6829</v>
+        <v>7202</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14669</v>
+        <v>13674</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7196</v>
+        <v>6005</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>9793</v>
+        <v>11160</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8714</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="12">
@@ -1896,32 +1896,32 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8231</v>
+        <v>8295</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8533</v>
+        <v>8545</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4373</v>
+        <v>5582</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3607</v>
+        <v>3571</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9865</v>
+        <v>8189</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8497</v>
+        <v>8604</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5450</v>
+        <v>6050</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>3595</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="16">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1502</v>
+        <v>1225</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1207</v>
+        <v>629</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2300</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="19">
@@ -2063,33 +2063,33 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>6342</v>
+        <v>7401</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12477</v>
+        <v>12871</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11891</v>
+        <v>11584</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4681</v>
+        <v>5210</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>9190</v>
+        <v>8056</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4682</v>
+        <v>5253</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>6403</v>
+        <v>6956</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13140</v>
+        <v>11800</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>13862</v>
+        <v>14799</v>
       </c>
     </row>
     <row r="20">
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3123</v>
+        <v>2841</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6621</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="23">
@@ -2236,40 +2236,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>12791</v>
+        <v>12494</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>21017</v>
+        <v>21031</v>
       </c>
     </row>
     <row r="24">
